--- a/server/quiz.xlsx
+++ b/server/quiz.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Academic pressure (exam, assignments, projects)Good looks and fitnessAthletic performance</t>
+          <t>Academic pressure (exam, assignments, projects)Good looks and fitness</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No, I don't miss my homeYes, Family and friends</t>
+          <t>No, I don't miss my home</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/server/quiz.xlsx
+++ b/server/quiz.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/server/quiz.xlsx
+++ b/server/quiz.xlsx
@@ -461,7 +461,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Academic pressure (exam, assignments, projects)Good looks and fitness</t>
+          <t>Academic pressure (exam, assignments, projects)Good looks and fitnessSocial Life</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Student Loan</t>
+          <t>Self financed</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
